--- a/data/excel/२०२५/०८/१३.xlsx
+++ b/data/excel/२०२५/०८/१३.xlsx
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
+    <t>Unit</t>
+  </si>
+  <si>
     <t>Max Price</t>
   </si>
   <si>
@@ -31,9 +34,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>२०२५-०८-१३</t>
   </si>
   <si>
@@ -52,6 +52,9 @@
     <t>६३.६०</t>
   </si>
   <si>
+    <t>३०.८०</t>
+  </si>
+  <si>
     <t>गोलभेडा सानो(लोकल)</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>२६.००</t>
   </si>
   <si>
-    <t>३०.८०</t>
-  </si>
-  <si>
     <t>के जी</t>
   </si>
   <si>
@@ -103,6 +103,12 @@
     <t>२९.८०</t>
   </si>
   <si>
+    <t>४३.००</t>
+  </si>
+  <si>
+    <t>आलु रातो(मुडे)</t>
+  </si>
+  <si>
     <t>केजी</t>
   </si>
   <si>
@@ -112,10 +118,7 @@
     <t>४२.००</t>
   </si>
   <si>
-    <t>४३.००</t>
-  </si>
-  <si>
-    <t>आलु रातो(मुडे)</t>
+    <t>आलु सेतो</t>
   </si>
   <si>
     <t>४०.००</t>
@@ -127,7 +130,7 @@
     <t>३८.५०</t>
   </si>
   <si>
-    <t>आलु सेतो</t>
+    <t>३८.२०</t>
   </si>
   <si>
     <t>प्याज सुकेको (भारतीय)</t>
@@ -136,9 +139,6 @@
     <t>३९.००</t>
   </si>
   <si>
-    <t>३८.२०</t>
-  </si>
-  <si>
     <t>गाजर(लोकल)</t>
   </si>
   <si>
@@ -160,36 +160,36 @@
     <t>९२.००</t>
   </si>
   <si>
+    <t>२५.००</t>
+  </si>
+  <si>
+    <t>१५.००</t>
+  </si>
+  <si>
+    <t>२०.००</t>
+  </si>
+  <si>
     <t>बन्दा(लोकल)</t>
   </si>
   <si>
-    <t>२५.००</t>
-  </si>
-  <si>
-    <t>१५.००</t>
-  </si>
-  <si>
-    <t>२०.००</t>
+    <t>१०५.००</t>
+  </si>
+  <si>
+    <t>काउली स्थानिय</t>
   </si>
   <si>
     <t>११०.००</t>
   </si>
   <si>
-    <t>१०५.००</t>
-  </si>
-  <si>
-    <t>काउली स्थानिय</t>
+    <t>८०.००</t>
+  </si>
+  <si>
+    <t>८५.००</t>
   </si>
   <si>
     <t>काउली तराई</t>
   </si>
   <si>
-    <t>८०.००</t>
-  </si>
-  <si>
-    <t>८५.००</t>
-  </si>
-  <si>
     <t>५५.००</t>
   </si>
   <si>
@@ -211,16 +211,19 @@
     <t>३०.००</t>
   </si>
   <si>
+    <t>बोडी(तने)</t>
+  </si>
+  <si>
     <t>९१.००</t>
   </si>
   <si>
-    <t>बोडी(तने)</t>
+    <t>७८.००</t>
   </si>
   <si>
     <t>मकै बोडी</t>
   </si>
   <si>
-    <t>७८.००</t>
+    <t>घिउ सिमी(लोकल)</t>
   </si>
   <si>
     <t>७५.००</t>
@@ -229,9 +232,6 @@
     <t>८१.००</t>
   </si>
   <si>
-    <t>घिउ सिमी(लोकल)</t>
-  </si>
-  <si>
     <t>घिउ सिमी(हाइब्रीड)</t>
   </si>
   <si>
@@ -247,12 +247,12 @@
     <t>घिउ सिमी(राजमा)</t>
   </si>
   <si>
+    <t>टाटे सिमी</t>
+  </si>
+  <si>
     <t>८४.००</t>
   </si>
   <si>
-    <t>टाटे सिमी</t>
-  </si>
-  <si>
     <t>१०८.००</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>चिचिण्डो</t>
   </si>
   <si>
+    <t>४६.००</t>
+  </si>
+  <si>
     <t>घिरौला</t>
   </si>
   <si>
-    <t>४६.००</t>
-  </si>
-  <si>
     <t>झिगूनी</t>
   </si>
   <si>
@@ -301,24 +301,24 @@
     <t>फर्सी हरियो(लाम्चो)</t>
   </si>
   <si>
+    <t>हरियो फर्सी(डल्लो)</t>
+  </si>
+  <si>
     <t>६१.००</t>
   </si>
   <si>
-    <t>हरियो फर्सी(डल्लो)</t>
+    <t>५९.००</t>
   </si>
   <si>
     <t>भिण्डी</t>
   </si>
   <si>
-    <t>५९.००</t>
+    <t>६८.००</t>
   </si>
   <si>
     <t>पिंडालू</t>
   </si>
   <si>
-    <t>६८.००</t>
-  </si>
-  <si>
     <t>३३.००</t>
   </si>
   <si>
@@ -331,12 +331,12 @@
     <t>पालूगो साग</t>
   </si>
   <si>
+    <t>तोरीको साग</t>
+  </si>
+  <si>
     <t>७१.००</t>
   </si>
   <si>
-    <t>तोरीको साग</t>
-  </si>
-  <si>
     <t>प्याज हरियो</t>
   </si>
   <si>
@@ -352,36 +352,39 @@
     <t>च्याउ(कन्य)</t>
   </si>
   <si>
+    <t>४००.००</t>
+  </si>
+  <si>
+    <t>३५०.००</t>
+  </si>
+  <si>
+    <t>३७६.००</t>
+  </si>
+  <si>
     <t>च्याउ(डल्ले)</t>
   </si>
   <si>
-    <t>४००.००</t>
-  </si>
-  <si>
-    <t>३५०.००</t>
-  </si>
-  <si>
-    <t>३७६.००</t>
+    <t>कुरीलो</t>
+  </si>
+  <si>
+    <t>३८०.००</t>
+  </si>
+  <si>
+    <t>३३०.००</t>
   </si>
   <si>
     <t>३५६.००</t>
   </si>
   <si>
-    <t>कुरीलो</t>
-  </si>
-  <si>
-    <t>३८०.००</t>
-  </si>
-  <si>
-    <t>३३०.००</t>
-  </si>
-  <si>
     <t>७७.००</t>
   </si>
   <si>
     <t>न्यूरो</t>
   </si>
   <si>
+    <t>२३४.००</t>
+  </si>
+  <si>
     <t>ब्रोकाउली</t>
   </si>
   <si>
@@ -391,9 +394,6 @@
     <t>२००.००</t>
   </si>
   <si>
-    <t>२३४.००</t>
-  </si>
-  <si>
     <t>चुकुन्दर</t>
   </si>
   <si>
@@ -433,24 +433,24 @@
     <t>१२००.००</t>
   </si>
   <si>
+    <t>सौफको साग</t>
+  </si>
+  <si>
     <t>१२५.००</t>
   </si>
   <si>
-    <t>सौफको साग</t>
+    <t>पुदीना</t>
   </si>
   <si>
     <t>३००.००</t>
   </si>
   <si>
-    <t>पुदीना</t>
+    <t>इमली</t>
   </si>
   <si>
     <t>१८५.००</t>
   </si>
   <si>
-    <t>इमली</t>
-  </si>
-  <si>
     <t>तामा</t>
   </si>
   <si>
@@ -460,21 +460,21 @@
     <t>तोफु</t>
   </si>
   <si>
+    <t>२७५.००</t>
+  </si>
+  <si>
     <t>गुन्दुक</t>
   </si>
   <si>
-    <t>२७५.००</t>
+    <t>स्याउ(झोले)</t>
+  </si>
+  <si>
+    <t>२२०.००</t>
   </si>
   <si>
     <t>२३५.००</t>
   </si>
   <si>
-    <t>स्याउ(झोले)</t>
-  </si>
-  <si>
-    <t>२२०.००</t>
-  </si>
-  <si>
     <t>स्याउ(फूजी)</t>
   </si>
   <si>
@@ -496,39 +496,39 @@
     <t>१४०.२०</t>
   </si>
   <si>
+    <t>कागती</t>
+  </si>
+  <si>
     <t>१५०.००</t>
   </si>
   <si>
     <t>१३८.००</t>
   </si>
   <si>
-    <t>कागती</t>
+    <t>अनार</t>
   </si>
   <si>
     <t>३९२.००</t>
   </si>
   <si>
-    <t>अनार</t>
+    <t>२१२.५०</t>
   </si>
   <si>
     <t>आँप(चोसा)</t>
   </si>
   <si>
-    <t>२१२.५०</t>
+    <t>सुन्तला(भारतीय)</t>
   </si>
   <si>
     <t>३२५.००</t>
   </si>
   <si>
-    <t>सुन्तला(भारतीय)</t>
+    <t>७२.००</t>
   </si>
   <si>
     <t>तरबुजा(हरियो)</t>
   </si>
   <si>
-    <t>७२.००</t>
-  </si>
-  <si>
     <t>मौसम</t>
   </si>
   <si>
@@ -553,12 +553,12 @@
     <t>नासपाती(लोकल)</t>
   </si>
   <si>
+    <t>२३६.००</t>
+  </si>
+  <si>
     <t>नासपाती(चाइनिज)</t>
   </si>
   <si>
-    <t>२३६.००</t>
-  </si>
-  <si>
     <t>मेवा(नेपाली)</t>
   </si>
   <si>
@@ -583,15 +583,15 @@
     <t>किवि</t>
   </si>
   <si>
+    <t>आभोकाडो</t>
+  </si>
+  <si>
+    <t>के.जी</t>
+  </si>
+  <si>
     <t>२८६.००</t>
   </si>
   <si>
-    <t>आभोकाडो</t>
-  </si>
-  <si>
-    <t>के.जी</t>
-  </si>
-  <si>
     <t>अदुवा</t>
   </si>
   <si>
@@ -622,15 +622,15 @@
     <t>लसुन हरियो</t>
   </si>
   <si>
+    <t>४५०.००</t>
+  </si>
+  <si>
+    <t>३९०.००</t>
+  </si>
+  <si>
     <t>हरियो धनिया</t>
   </si>
   <si>
-    <t>४५०.००</t>
-  </si>
-  <si>
-    <t>३९०.००</t>
-  </si>
-  <si>
     <t>लसुन सुकेको चाइनिज</t>
   </si>
   <si>
@@ -643,6 +643,9 @@
     <t>छ्यापी हरियो</t>
   </si>
   <si>
+    <t>माछा सुकेको</t>
+  </si>
+  <si>
     <t>१०००.००</t>
   </si>
   <si>
@@ -652,13 +655,13 @@
     <t>९००.००</t>
   </si>
   <si>
-    <t>माछा सुकेको</t>
+    <t>ताजा माछा(रहु)</t>
   </si>
   <si>
     <t>३२०.००</t>
   </si>
   <si>
-    <t>ताजा माछा(रहु)</t>
+    <t>ताजा माछा(बचुवा)</t>
   </si>
   <si>
     <t>२६०.००</t>
@@ -667,7 +670,7 @@
     <t>२७०.००</t>
   </si>
   <si>
-    <t>ताजा माछा(बचुवा)</t>
+    <t>ताजा माछा(छडी)</t>
   </si>
   <si>
     <t>२४०.००</t>
@@ -676,19 +679,16 @@
     <t>२३०.००</t>
   </si>
   <si>
-    <t>ताजा माछा(छडी)</t>
+    <t>राजा च्याउ</t>
   </si>
   <si>
     <t>२९२.५०</t>
   </si>
   <si>
-    <t>राजा च्याउ</t>
+    <t>९५०.००</t>
   </si>
   <si>
     <t>सिताके च्याउ</t>
-  </si>
-  <si>
-    <t>९५०.००</t>
   </si>
 </sst>
 </file>
@@ -1000,22 +1000,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -1043,19 +1043,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1123,19 +1123,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1143,19 +1143,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -1206,7 +1206,7 @@
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -1223,19 +1223,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -1243,19 +1243,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -1263,7 +1263,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1272,10 +1272,10 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
         <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1306,16 +1306,16 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1329,10 +1329,10 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
         <v>62</v>
@@ -1349,13 +1349,13 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -1363,7 +1363,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1372,10 +1372,10 @@
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
@@ -1383,19 +1383,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -1403,7 +1403,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1412,10 +1412,10 @@
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -1426,16 +1426,16 @@
         <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -1446,7 +1446,7 @@
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
@@ -1463,7 +1463,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1472,10 +1472,10 @@
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -1512,10 +1512,10 @@
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -1552,10 +1552,10 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
         <v>56</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -1566,16 +1566,16 @@
         <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
       </c>
       <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>56</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1589,13 +1589,13 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
         <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
@@ -1603,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1612,10 +1612,10 @@
         <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -1683,10 +1683,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
         <v>90</v>
@@ -1695,7 +1695,7 @@
         <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -1703,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -1715,7 +1715,7 @@
         <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -1723,7 +1723,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -1735,7 +1735,7 @@
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -1772,10 +1772,10 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
         <v>56</v>
-      </c>
-      <c r="F39" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="40">
@@ -1803,19 +1803,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -1832,7 +1832,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
         <v>108</v>
@@ -1863,19 +1863,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" t="s">
         <v>113</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>114</v>
-      </c>
-      <c r="F44" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -1883,19 +1883,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
         <v>117</v>
       </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>118</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>119</v>
-      </c>
-      <c r="F45" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -1909,7 +1909,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -1923,19 +1923,19 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" t="s">
         <v>122</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="48">
@@ -1969,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
         <v>127</v>
@@ -1989,10 +1989,10 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F50" t="s">
         <v>131</v>
@@ -2012,7 +2012,7 @@
         <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s">
         <v>132</v>
@@ -2063,7 +2063,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -2075,7 +2075,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55">
@@ -2083,19 +2083,19 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" t="s">
         <v>142</v>
       </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" t="s">
-        <v>141</v>
-      </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56">
@@ -2103,7 +2103,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -2115,7 +2115,7 @@
         <v>127</v>
       </c>
       <c r="F56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57">
@@ -2135,7 +2135,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
@@ -2163,19 +2163,19 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" t="s">
         <v>148</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" t="s">
-        <v>123</v>
-      </c>
-      <c r="F59" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="60">
@@ -2183,19 +2183,19 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" t="s">
         <v>151</v>
       </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>152</v>
-      </c>
-      <c r="F60" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="61">
@@ -2209,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>154</v>
@@ -2243,19 +2243,19 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E63" t="s">
         <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64">
@@ -2263,19 +2263,19 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" t="s">
         <v>164</v>
-      </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" t="s">
-        <v>118</v>
-      </c>
-      <c r="F64" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="65">
@@ -2283,19 +2283,19 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" t="s">
         <v>165</v>
-      </c>
-      <c r="C65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" t="s">
-        <v>152</v>
-      </c>
-      <c r="E65" t="s">
-        <v>124</v>
-      </c>
-      <c r="F65" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="66">
@@ -2303,19 +2303,19 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" t="s">
         <v>168</v>
-      </c>
-      <c r="C66" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" t="s">
-        <v>114</v>
-      </c>
-      <c r="E66" t="s">
-        <v>141</v>
-      </c>
-      <c r="F66" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="67">
@@ -2323,19 +2323,19 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68">
@@ -2355,7 +2355,7 @@
         <v>73</v>
       </c>
       <c r="F68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69">
@@ -2369,13 +2369,13 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" t="s">
         <v>152</v>
-      </c>
-      <c r="F69" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="70">
@@ -2395,7 +2395,7 @@
         <v>73</v>
       </c>
       <c r="F70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71">
@@ -2412,7 +2412,7 @@
         <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -2429,13 +2429,13 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" t="s">
         <v>49</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>50</v>
-      </c>
-      <c r="F72" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="73">
@@ -2452,7 +2452,7 @@
         <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -2469,7 +2469,7 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
@@ -2483,19 +2483,19 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" t="s">
         <v>179</v>
-      </c>
-      <c r="C75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" t="s">
-        <v>152</v>
-      </c>
-      <c r="F75" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="76">
@@ -2526,7 +2526,7 @@
         <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D77" t="s">
         <v>43</v>
@@ -2549,10 +2549,10 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
         <v>185</v>
@@ -2586,16 +2586,16 @@
         <v>188</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D80" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" t="s">
         <v>113</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>114</v>
-      </c>
-      <c r="F80" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="81">
@@ -2603,19 +2603,19 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" t="s">
         <v>190</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" t="s">
         <v>191</v>
-      </c>
-      <c r="D81" t="s">
-        <v>141</v>
-      </c>
-      <c r="E81" t="s">
-        <v>123</v>
-      </c>
-      <c r="F81" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="82">
@@ -2649,13 +2649,13 @@
         <v>8</v>
       </c>
       <c r="D83" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" t="s">
+        <v>142</v>
+      </c>
+      <c r="F83" t="s">
         <v>113</v>
-      </c>
-      <c r="E83" t="s">
-        <v>141</v>
-      </c>
-      <c r="F83" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="84">
@@ -2692,10 +2692,10 @@
         <v>24</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
@@ -2715,7 +2715,7 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87">
@@ -2729,7 +2729,7 @@
         <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E87" t="s">
         <v>127</v>
@@ -2749,13 +2749,13 @@
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E88" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F88" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89">
@@ -2769,7 +2769,7 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E89" t="s">
         <v>73</v>
@@ -2783,19 +2783,19 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
         <v>202</v>
       </c>
-      <c r="C90" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
+        <v>142</v>
+      </c>
+      <c r="F90" t="s">
         <v>203</v>
-      </c>
-      <c r="E90" t="s">
-        <v>141</v>
-      </c>
-      <c r="F90" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -2809,7 +2809,7 @@
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91" t="s">
         <v>127</v>
@@ -2835,7 +2835,7 @@
         <v>73</v>
       </c>
       <c r="F92" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93">
@@ -2849,7 +2849,7 @@
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E93" t="s">
         <v>127</v>
@@ -2875,7 +2875,7 @@
         <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95">
@@ -2883,19 +2883,19 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>210</v>
+      </c>
+      <c r="E95" t="s">
+        <v>211</v>
+      </c>
+      <c r="F95" t="s">
         <v>212</v>
-      </c>
-      <c r="C95" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" t="s">
-        <v>209</v>
-      </c>
-      <c r="E95" t="s">
-        <v>210</v>
-      </c>
-      <c r="F95" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="96">
@@ -2903,19 +2903,19 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F96" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97">
@@ -2923,7 +2923,7 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
@@ -2932,10 +2932,10 @@
         <v>154</v>
       </c>
       <c r="E97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98">
@@ -2943,19 +2943,19 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99">
@@ -2963,19 +2963,19 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E99" t="s">
         <v>154</v>
       </c>
       <c r="F99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100">
@@ -2983,19 +2983,19 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>210</v>
+      </c>
+      <c r="E100" t="s">
+        <v>212</v>
+      </c>
+      <c r="F100" t="s">
         <v>223</v>
-      </c>
-      <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" t="s">
-        <v>209</v>
-      </c>
-      <c r="E100" t="s">
-        <v>211</v>
-      </c>
-      <c r="F100" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
